--- a/distance.xlsx
+++ b/distance.xlsx
@@ -427,31 +427,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.39634437782091</v>
+        <v>0.8033489422666337</v>
       </c>
       <c r="D2">
-        <v>1.573291158465736</v>
+        <v>0.7780321944761875</v>
       </c>
       <c r="E2">
-        <v>1.473061694028994</v>
+        <v>0.6844833626734086</v>
       </c>
       <c r="F2">
-        <v>1.571938973056378</v>
+        <v>0.8197732649855911</v>
       </c>
       <c r="G2">
-        <v>1.549313310209814</v>
+        <v>0.5122346111489009</v>
       </c>
       <c r="H2">
-        <v>1.502261396097037</v>
+        <v>0.7793326682695294</v>
       </c>
       <c r="I2">
-        <v>1.39074644583904</v>
+        <v>0.8763387549643167</v>
       </c>
       <c r="J2">
-        <v>1.593485461420547</v>
+        <v>0.8363746747535183</v>
       </c>
       <c r="K2">
-        <v>1.551044945448325</v>
+        <v>0.625992457700981</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.39634437782091</v>
+        <v>0.8033489422666337</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.475102413764345</v>
+        <v>0.7954783412695312</v>
       </c>
       <c r="E3">
-        <v>1.338963384825107</v>
+        <v>0.7515179272642862</v>
       </c>
       <c r="F3">
-        <v>1.439305711516478</v>
+        <v>0.7893056069513931</v>
       </c>
       <c r="G3">
-        <v>1.451189480332665</v>
+        <v>0.8025919803222904</v>
       </c>
       <c r="H3">
-        <v>1.32895072208923</v>
+        <v>0.7934463310948547</v>
       </c>
       <c r="I3">
-        <v>1.474753895448977</v>
+        <v>0.8748208267925286</v>
       </c>
       <c r="J3">
-        <v>1.477269514037221</v>
+        <v>0.832212793916819</v>
       </c>
       <c r="K3">
-        <v>1.453854262210452</v>
+        <v>0.7783553495935529</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.573291158465736</v>
+        <v>0.7780321944761875</v>
       </c>
       <c r="C4">
-        <v>1.475102413764345</v>
+        <v>0.7954783412695312</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.521470848231396</v>
+        <v>0.7435664020821737</v>
       </c>
       <c r="F4">
-        <v>1.584069063172271</v>
+        <v>0.6958104729544322</v>
       </c>
       <c r="G4">
-        <v>1.576753328803362</v>
+        <v>0.7392729037253438</v>
       </c>
       <c r="H4">
-        <v>1.508345355353202</v>
+        <v>0.7394052497452639</v>
       </c>
       <c r="I4">
-        <v>1.457157422336149</v>
+        <v>0.8644892514194499</v>
       </c>
       <c r="J4">
-        <v>1.622939754553944</v>
+        <v>0.7022827242649149</v>
       </c>
       <c r="K4">
-        <v>1.61538040359284</v>
+        <v>0.7265999177633118</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.473061694028994</v>
+        <v>0.6844833626734086</v>
       </c>
       <c r="C5">
-        <v>1.338963384825107</v>
+        <v>0.7515179272642862</v>
       </c>
       <c r="D5">
-        <v>1.521470848231396</v>
+        <v>0.7435664020821737</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.51617628665908</v>
+        <v>0.7754456452926893</v>
       </c>
       <c r="G5">
-        <v>1.495857873288045</v>
+        <v>0.7503360632656348</v>
       </c>
       <c r="H5">
-        <v>1.465314270008068</v>
+        <v>0.7311903696950479</v>
       </c>
       <c r="I5">
-        <v>1.317024473220531</v>
+        <v>0.8497554216746174</v>
       </c>
       <c r="J5">
-        <v>1.531897020123594</v>
+        <v>0.7981795053318627</v>
       </c>
       <c r="K5">
-        <v>1.520829319068953</v>
+        <v>0.7265048526709662</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.571938973056378</v>
+        <v>0.8197732649855911</v>
       </c>
       <c r="C6">
-        <v>1.439305711516478</v>
+        <v>0.7893056069513931</v>
       </c>
       <c r="D6">
-        <v>1.584069063172271</v>
+        <v>0.6958104729544322</v>
       </c>
       <c r="E6">
-        <v>1.51617628665908</v>
+        <v>0.7754456452926893</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.545082064550364</v>
+        <v>0.739122289019299</v>
       </c>
       <c r="H6">
-        <v>1.479955537707919</v>
+        <v>0.6747513996794336</v>
       </c>
       <c r="I6">
-        <v>1.456712139058324</v>
+        <v>0.8269574963689325</v>
       </c>
       <c r="J6">
-        <v>1.611088714832858</v>
+        <v>0.6761125895360875</v>
       </c>
       <c r="K6">
-        <v>1.588013255948589</v>
+        <v>0.7257673971527883</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.549313310209814</v>
+        <v>0.5122346111489009</v>
       </c>
       <c r="C7">
-        <v>1.451189480332665</v>
+        <v>0.8025919803222904</v>
       </c>
       <c r="D7">
-        <v>1.576753328803362</v>
+        <v>0.7392729037253438</v>
       </c>
       <c r="E7">
-        <v>1.495857873288045</v>
+        <v>0.7503360632656348</v>
       </c>
       <c r="F7">
-        <v>1.545082064550364</v>
+        <v>0.739122289019299</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.471531665688902</v>
+        <v>0.7699658353380381</v>
       </c>
       <c r="I7">
-        <v>1.45597986661295</v>
+        <v>0.8593402138227816</v>
       </c>
       <c r="J7">
-        <v>1.579457292143035</v>
+        <v>0.7650310681443386</v>
       </c>
       <c r="K7">
-        <v>1.591852983277882</v>
+        <v>0.6789020329378918</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.502261396097037</v>
+        <v>0.7793326682695294</v>
       </c>
       <c r="C8">
-        <v>1.32895072208923</v>
+        <v>0.7934463310948547</v>
       </c>
       <c r="D8">
-        <v>1.508345355353202</v>
+        <v>0.7394052497452639</v>
       </c>
       <c r="E8">
-        <v>1.465314270008068</v>
+        <v>0.7311903696950479</v>
       </c>
       <c r="F8">
-        <v>1.479955537707919</v>
+        <v>0.6747513996794336</v>
       </c>
       <c r="G8">
-        <v>1.471531665688902</v>
+        <v>0.7699658353380381</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.322953639000175</v>
+        <v>0.8292543482826537</v>
       </c>
       <c r="J8">
-        <v>1.545041378882697</v>
+        <v>0.768779662469582</v>
       </c>
       <c r="K8">
-        <v>1.526808489597437</v>
+        <v>0.7021614931319237</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.39074644583904</v>
+        <v>0.8763387549643167</v>
       </c>
       <c r="C9">
-        <v>1.474753895448977</v>
+        <v>0.8748208267925286</v>
       </c>
       <c r="D9">
-        <v>1.457157422336149</v>
+        <v>0.8644892514194499</v>
       </c>
       <c r="E9">
-        <v>1.317024473220531</v>
+        <v>0.8497554216746174</v>
       </c>
       <c r="F9">
-        <v>1.456712139058324</v>
+        <v>0.8269574963689325</v>
       </c>
       <c r="G9">
-        <v>1.45597986661295</v>
+        <v>0.8593402138227816</v>
       </c>
       <c r="H9">
-        <v>1.322953639000175</v>
+        <v>0.8292543482826537</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.49772419200882</v>
+        <v>0.8677794361865383</v>
       </c>
       <c r="K9">
-        <v>1.451873632461928</v>
+        <v>0.8252790971375107</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.593485461420547</v>
+        <v>0.8363746747535183</v>
       </c>
       <c r="C10">
-        <v>1.477269514037221</v>
+        <v>0.832212793916819</v>
       </c>
       <c r="D10">
-        <v>1.622939754553944</v>
+        <v>0.7022827242649149</v>
       </c>
       <c r="E10">
-        <v>1.531897020123594</v>
+        <v>0.7981795053318627</v>
       </c>
       <c r="F10">
-        <v>1.611088714832858</v>
+        <v>0.6761125895360875</v>
       </c>
       <c r="G10">
-        <v>1.579457292143035</v>
+        <v>0.7650310681443386</v>
       </c>
       <c r="H10">
-        <v>1.545041378882697</v>
+        <v>0.768779662469582</v>
       </c>
       <c r="I10">
-        <v>1.49772419200882</v>
+        <v>0.8677794361865383</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.613573528498865</v>
+        <v>0.7339419898921768</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,31 +739,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.551044945448325</v>
+        <v>0.625992457700981</v>
       </c>
       <c r="C11">
-        <v>1.453854262210452</v>
+        <v>0.7783553495935529</v>
       </c>
       <c r="D11">
-        <v>1.61538040359284</v>
+        <v>0.7265999177633118</v>
       </c>
       <c r="E11">
-        <v>1.520829319068953</v>
+        <v>0.7265048526709662</v>
       </c>
       <c r="F11">
-        <v>1.588013255948589</v>
+        <v>0.7257673971527883</v>
       </c>
       <c r="G11">
-        <v>1.591852983277882</v>
+        <v>0.6789020329378918</v>
       </c>
       <c r="H11">
-        <v>1.526808489597437</v>
+        <v>0.7021614931319237</v>
       </c>
       <c r="I11">
-        <v>1.451873632461928</v>
+        <v>0.8252790971375107</v>
       </c>
       <c r="J11">
-        <v>1.613573528498865</v>
+        <v>0.7339419898921768</v>
       </c>
       <c r="K11">
         <v>0</v>
